--- a/bills/order_2.xlsx
+++ b/bills/order_2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{549AEB7F-BA70-4037-8A18-41F0E3BEAE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{805A62F9-2585-4F9B-82D6-36D5F9579095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="14976" windowHeight="7656" xr2:uid="{28856A06-2475-4009-AD4B-ADD5159DBAB3}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="14976" windowHeight="7656" xr2:uid="{2E13F844-2F64-411B-B213-EC7358DC316F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -44,19 +44,13 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Ca Chua</t>
-  </si>
-  <si>
-    <t>Thit Heo</t>
-  </si>
-  <si>
-    <t>Ga</t>
-  </si>
-  <si>
-    <t>Thanh Long</t>
-  </si>
-  <si>
-    <t>Tom</t>
+    <t>Bap Cai</t>
+  </si>
+  <si>
+    <t>Tao</t>
+  </si>
+  <si>
+    <t>ga</t>
   </si>
 </sst>
 </file>
@@ -407,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1D8855-E52A-451C-A2F2-7CB783036A17}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0374DA-3CF5-4F6B-B87E-AE4593F9A7A6}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -441,10 +435,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="D2">
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -455,10 +449,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>140000</v>
+        <v>15000</v>
       </c>
       <c r="D3">
-        <v>140000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -466,49 +460,21 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1200000</v>
+        <v>200000</v>
       </c>
       <c r="D4">
-        <v>12000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>14000</v>
-      </c>
-      <c r="D5">
-        <v>14000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>200000</v>
-      </c>
-      <c r="D6">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>12369000</v>
+        <v>235000</v>
       </c>
     </row>
   </sheetData>

--- a/bills/order_2.xlsx
+++ b/bills/order_2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{805A62F9-2585-4F9B-82D6-36D5F9579095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C262401-5895-444E-B1C4-447F9377FAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="14976" windowHeight="7656" xr2:uid="{2E13F844-2F64-411B-B213-EC7358DC316F}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="14976" windowHeight="7656" xr2:uid="{2C9880C0-7CC9-4F28-A72B-7AE1D04513F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -44,13 +44,10 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Ca Chua</t>
+  </si>
+  <si>
     <t>Bap Cai</t>
-  </si>
-  <si>
-    <t>Tao</t>
-  </si>
-  <si>
-    <t>ga</t>
   </si>
 </sst>
 </file>
@@ -401,14 +398,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0374DA-3CF5-4F6B-B87E-AE4593F9A7A6}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73FE819-B25B-4748-8CDB-BC0C70C428D6}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
@@ -432,13 +429,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="D2">
-        <v>20000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -446,35 +443,21 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C3">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="D3">
-        <v>15000</v>
+        <v>540000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>200000</v>
-      </c>
-      <c r="D4">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>235000</v>
+      <c r="C5">
+        <v>810000</v>
       </c>
     </row>
   </sheetData>
